--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -4,61 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="paper" sheetId="2" r:id="rId2"/>
+    <sheet name="paper" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -75,6 +35,9 @@
   </si>
   <si>
     <t>测试2</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -417,110 +380,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>